--- a/Mathematical Modelling and Simulation (Lab)/EXP 3/16010421119_A3_MS_EXP3_INLAB.xlsx
+++ b/Mathematical Modelling and Simulation (Lab)/EXP 3/16010421119_A3_MS_EXP3_INLAB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aarya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aarya\OneDrive\Desktop\SEM-VI\Mathematical Modelling and Simulation (Lab)\EXP 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE894072-BF3D-4498-A27E-F3C710BFE8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8856CFF4-B98C-474B-AF2E-65B2ED833F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$28:$E$47</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$N$28:$N$47</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Service Time</t>
   </si>
@@ -85,6 +81,24 @@
   </si>
   <si>
     <t>Wait Time</t>
+  </si>
+  <si>
+    <t>Avg Waiting Time</t>
+  </si>
+  <si>
+    <t>Probability of Customers Waiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability. Of Idle Server </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Time between Arrival </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Waiting Time of Those Who Wait </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Time Customers Spends In System </t>
   </si>
 </sst>
 </file>
@@ -326,34 +340,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -362,25 +376,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,61 +505,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:O47"/>
+  <dimension ref="E2:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1645,6 +1662,8 @@
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
     <col min="14" max="14" width="18.44140625" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="20" max="20" width="42.21875" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:12" x14ac:dyDescent="0.3">
@@ -1889,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>1</v>
       </c>
@@ -1907,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>2</v>
       </c>
@@ -1927,7 +1946,7 @@
         <v>15.000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>3</v>
       </c>
@@ -1947,7 +1966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>4</v>
       </c>
@@ -1967,7 +1986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>5</v>
       </c>
@@ -1987,7 +2006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>6</v>
       </c>
@@ -2007,7 +2026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>8</v>
       </c>
@@ -2042,7 +2061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>1</v>
       </c>
@@ -2057,22 +2076,22 @@
       </c>
       <c r="I28">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J28">
         <f ca="1">LOOKUP(I28,$H$17:$I$22,$E$17:$E$22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
         <f ca="1">J28</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M28">
         <f ca="1">L28-H28</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <f>K28-H28</f>
@@ -2080,36 +2099,36 @@
       </c>
       <c r="O28">
         <f ca="1">ABS(L28-H29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
         <f t="shared" ref="F29:F47" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G29">
         <f ca="1">LOOKUP(F29,$H$4:$I$13,$E$4:$E$13)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H29">
         <f ca="1">SUM(H28,G29)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <f t="shared" ref="I29:I47" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="J29">
         <f t="shared" ref="J29:J47" ca="1" si="7">LOOKUP(I29,$H$17:$I$22,$E$17:$E$22)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K29">
         <f ca="1">IF(L28&gt;H29,L28,H29)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <f ca="1">SUM(J29,K29)</f>
@@ -2117,28 +2136,35 @@
       </c>
       <c r="M29">
         <f ca="1">L29-H29</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <f ca="1">K29-H29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <f ca="1">ABS(L29-H30)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="T29" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29">
+        <f ca="1">AVERAGE(N28:N47)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G30">
         <f ca="1">LOOKUP(F30,$H$4:$I$13,$E$4:$E$13)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H38" ca="1" si="8">SUM(H29,G30)</f>
@@ -2146,7 +2172,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="7"/>
@@ -2170,130 +2196,137 @@
       </c>
       <c r="O30">
         <f t="shared" ref="O30:O46" ca="1" si="12">ABS(L30-H31)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G31">
         <f ca="1">LOOKUP(F31,$H$4:$I$13,$E$4:$E$13)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <f t="shared" ref="N31:N47" ca="1" si="13">K31-H31</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s">
+        <v>17</v>
+      </c>
+      <c r="U31">
+        <f>6/20</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G32">
         <f t="shared" ref="G32:G47" ca="1" si="14">LOOKUP(F32,$H$4:$I$13,$E$4:$E$13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E33">
         <v>6</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="9"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="10"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="11"/>
@@ -2301,167 +2334,181 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>18</v>
+      </c>
+      <c r="U33">
+        <f ca="1">O48/M48</f>
+        <v>0.40594059405940597</v>
+      </c>
+    </row>
+    <row r="34" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E34">
         <v>7</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>8</v>
       </c>
       <c r="F35">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U35">
+        <f ca="1">O48/20</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E36">
         <v>9</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="8"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E37">
         <v>10</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="7"/>
@@ -2469,105 +2516,111 @@
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E38">
         <v>11</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="8"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E39">
         <v>12</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H39">
         <f ca="1">SUM(H38,G39)</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="13"/>
@@ -2575,44 +2628,51 @@
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39">
+        <f ca="1">AVERAGE(M28:M47)</f>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="40" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E40">
         <v>13</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H40">
         <f t="shared" ref="H40:H47" ca="1" si="15">SUM(H39,G40)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="13"/>
@@ -2620,118 +2680,118 @@
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>14</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>15</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="15"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="11"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>16</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="15"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="7"/>
@@ -2739,56 +2799,56 @@
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>17</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="15"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="11"/>
@@ -2796,142 +2856,159 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>18</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="15"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="10"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>19</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="15"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>20</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="15"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="O47">
         <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <f ca="1">SUM(M28:M47)</f>
+        <v>101</v>
+      </c>
+      <c r="N48">
+        <f ca="1">SUM(N28:N47)</f>
+        <v>19</v>
+      </c>
+      <c r="O48">
+        <f ca="1">SUM(O28:O46)</f>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
